--- a/diverse/tidsplan-V23.xlsx
+++ b/diverse/tidsplan-V23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s12203\repos\met4\diverse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9515357B-9DAD-4B7B-90B9-CE3B7B87374D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57007EBE-66BE-4EB1-BF04-A8E5B07C8BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-195" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,12 +81,6 @@
     <t>18.01: **Oppgaveseminar 1** i Aud A. Se \@ref(seminar) for oppgaver.</t>
   </si>
   <si>
-    <t>25.01: (Ingen aktivitet)</t>
-  </si>
-  <si>
-    <t>27.01: **Regnegrupper** i 2. etg bibliotek</t>
-  </si>
-  <si>
     <t>30.01: **Oversiktsforelesning: Hypotesetesting** i Aud A</t>
   </si>
   <si>
@@ -160,6 +154,12 @@
   </si>
   <si>
     <t>Tidsrekker/Obligatorisk innlevering</t>
+  </si>
+  <si>
+    <t>23.01: (Ingen aktivitet)</t>
+  </si>
+  <si>
+    <t>25.01: **Regnegrupper** i 2. etg bibliotek</t>
   </si>
 </sst>
 </file>
@@ -486,7 +486,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,10 +548,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -562,10 +562,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -576,10 +576,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -590,10 +590,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -604,10 +604,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -615,13 +615,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -629,13 +629,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -646,10 +646,10 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -660,10 +660,10 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -674,10 +674,10 @@
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -693,13 +693,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" t="s">
         <v>38</v>
-      </c>
-      <c r="C15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -710,10 +710,10 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/diverse/tidsplan-V23.xlsx
+++ b/diverse/tidsplan-V23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s12203\repos\met4\diverse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57007EBE-66BE-4EB1-BF04-A8E5B07C8BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E3E74B-73CC-4F2D-8DF4-71A472F8BD42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-195" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -111,27 +111,15 @@
     <t>01.03: **Regnegrupper** i 2. etg bibliotek</t>
   </si>
   <si>
-    <t>06.03: **Oversiktsforelesning Tidsrekker** i Aud A</t>
-  </si>
-  <si>
     <t>08.03: (Ingen aktivitet)</t>
   </si>
   <si>
-    <t>13.03: **Regnegrupper** i 2. etg bibliotek</t>
-  </si>
-  <si>
     <t>15.03:  **Gjesteforelesning med Ole-Petter Moe Hansen, Tryg forsikring** i Aud A</t>
   </si>
   <si>
     <t>20.03: **Regnegrupper** i 2. etg bibliotek</t>
   </si>
   <si>
-    <t>24.03: (Ingen aktivitet)</t>
-  </si>
-  <si>
-    <t>27.03: **Oversiktsforelesning Avansert regresjon og maskinlæring** i Aud A</t>
-  </si>
-  <si>
     <t>29.03:  **Oppgaveseminar 6** i Aud A. Se \@ref(seminar) for oppgaver.</t>
   </si>
   <si>
@@ -144,9 +132,6 @@
     <t>12.04: **Oppgaveseminar 7** i Aud A.</t>
   </si>
   <si>
-    <t>17.04:  Vi avtaler passende aktivitet når det nærmer seg</t>
-  </si>
-  <si>
     <t>19.04:  Vi avtaler passende aktivitet når det nærmer seg</t>
   </si>
   <si>
@@ -160,6 +145,21 @@
   </si>
   <si>
     <t>25.01: **Regnegrupper** i 2. etg bibliotek</t>
+  </si>
+  <si>
+    <t>22.03: (Ingen aktivitet pga Symposium)</t>
+  </si>
+  <si>
+    <t>06.03:~~Oversiktsforelesning Tidsrekker i Aud A~~ (avlyst)</t>
+  </si>
+  <si>
+    <t>13.03: **Oversiktsforelesning Tidsrekker** i Aud A</t>
+  </si>
+  <si>
+    <t>17.04:  **Oversiktsforelesning Avansert regresjon og maskinlæring** i Aud A</t>
+  </si>
+  <si>
+    <t>27.03: **Regnegrupper** i 2. etg bibliotek</t>
   </si>
 </sst>
 </file>
@@ -486,7 +486,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,10 +548,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -615,7 +615,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
@@ -629,13 +629,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
         <v>28</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -646,10 +646,10 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -660,10 +660,10 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -674,10 +674,10 @@
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -693,13 +693,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -710,10 +710,10 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/diverse/tidsplan-V23.xlsx
+++ b/diverse/tidsplan-V23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s12203\repos\met4\diverse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E3E74B-73CC-4F2D-8DF4-71A472F8BD42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C168264-D5DE-485E-AC6C-09F297F92887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,18 +120,12 @@
     <t>20.03: **Regnegrupper** i 2. etg bibliotek</t>
   </si>
   <si>
-    <t>29.03:  **Oppgaveseminar 6** i Aud A. Se \@ref(seminar) for oppgaver.</t>
-  </si>
-  <si>
     <t>Dataøving 5</t>
   </si>
   <si>
     <t>10.04: (Ingen aktivitet)</t>
   </si>
   <si>
-    <t>12.04: **Oppgaveseminar 7** i Aud A.</t>
-  </si>
-  <si>
     <t>19.04:  Vi avtaler passende aktivitet når det nærmer seg</t>
   </si>
   <si>
@@ -160,6 +154,12 @@
   </si>
   <si>
     <t>27.03: **Regnegrupper** i 2. etg bibliotek</t>
+  </si>
+  <si>
+    <t>29.03:  **Oppgaveseminar 5** i Aud A. Se \@ref(seminar) for oppgaver.</t>
+  </si>
+  <si>
+    <t>12.04: **Oppgaveseminar 6** i Aud A.</t>
   </si>
 </sst>
 </file>
@@ -486,7 +486,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,10 +548,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -615,7 +615,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
@@ -629,10 +629,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
         <v>28</v>
@@ -646,7 +646,7 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
         <v>29</v>
@@ -663,7 +663,7 @@
         <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -674,10 +674,10 @@
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -693,13 +693,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
         <v>32</v>
       </c>
-      <c r="C15" t="s">
-        <v>33</v>
-      </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -710,10 +710,10 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
